--- a/data/dados_trabalho.xlsx
+++ b/data/dados_trabalho.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinamusso/Desktop/Trabalho_Dados/Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariateresaleaocosta/Documents/0_Disciplinas_2023_1/0_ADCateg_2023_1/5_Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{926D809D-D1CA-2346-AC59-6877B23D0268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7258D9-3DBB-0D41-BE53-2F4F46F648EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="3000" windowWidth="22940" windowHeight="11880" xr2:uid="{A2E1B1A1-BF68-A143-A0F6-2A29E2582F29}"/>
   </bookViews>
@@ -435,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6862D5DB-5602-494A-845A-859DE20B7844}">
   <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
